--- a/excel2json-master/FieldMonsterSpwan_Data.xlsx
+++ b/excel2json-master/FieldMonsterSpwan_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C61821E0-D5D6-4BD4-A699-C3E63FA0BFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BDB2A2-5292-4BAB-9931-B9FC8389AAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10290" yWindow="885" windowWidth="17145" windowHeight="13260" xr2:uid="{EEDD35C9-175D-4898-A367-A7B035882DA2}"/>
+    <workbookView xWindow="9675" yWindow="915" windowWidth="16995" windowHeight="13260" xr2:uid="{EEDD35C9-175D-4898-A367-A7B035882DA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,10 +139,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
-    <t>MonsterID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#FieldMonsterSpwan[{}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,6 +326,10 @@
   </si>
   <si>
     <t>12.1,294.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterID[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,7 +745,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DA5BD1-DD57-4D8D-AAF2-C4145899C5D9}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -753,25 +755,25 @@
     <col min="2" max="2" width="18.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="42.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="18" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="7" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -789,223 +791,223 @@
     </row>
     <row r="2" spans="1:18">
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5">
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5">
         <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5">
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5">
         <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3">
         <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3">
         <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3">
         <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3">
         <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3">
         <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3">
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="B12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3">
         <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E17" s="4">
         <v>7</v>
@@ -1013,13 +1015,13 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="4">
         <v>7</v>
@@ -1027,13 +1029,13 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="4">
         <v>7</v>
@@ -1041,13 +1043,13 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="E20" s="4">
         <v>7</v>
@@ -1055,13 +1057,13 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="4">
         <v>7</v>
@@ -1069,13 +1071,13 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="4">
         <v>7</v>
@@ -1083,13 +1085,13 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="4">
         <v>7</v>
@@ -1097,13 +1099,13 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="E24" s="4">
         <v>5</v>
@@ -1111,13 +1113,13 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" s="4">
         <v>5</v>
@@ -1125,13 +1127,13 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="4">
         <v>5</v>
@@ -1139,13 +1141,13 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="4">
         <v>5</v>
@@ -1153,13 +1155,13 @@
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="4">
         <v>5</v>
@@ -1167,13 +1169,13 @@
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E29" s="4">
         <v>6</v>
@@ -1181,13 +1183,13 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" s="4">
         <v>6</v>
@@ -1195,13 +1197,13 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" s="4">
         <v>6</v>
@@ -1209,13 +1211,13 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E32" s="4">
         <v>6</v>
@@ -1223,13 +1225,13 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E33" s="4">
         <v>6</v>

--- a/excel2json-master/FieldMonsterSpwan_Data.xlsx
+++ b/excel2json-master/FieldMonsterSpwan_Data.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\unity\TeamProject\05TeamProject14\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BDB2A2-5292-4BAB-9931-B9FC8389AAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BDF3E3-188F-4229-A657-369C416B81D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9675" yWindow="915" windowWidth="16995" windowHeight="13260" xr2:uid="{EEDD35C9-175D-4898-A367-A7B035882DA2}"/>
+    <workbookView xWindow="10845" yWindow="300" windowWidth="14715" windowHeight="15240" xr2:uid="{EEDD35C9-175D-4898-A367-A7B035882DA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -137,24 +128,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>#FieldMonsterSpwan[{}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MonsterMoveZone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Radius</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MonsterCreateSpot[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2,8,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,161 +158,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.2,69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-58.9,121.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50.3,118.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>84.6,180.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.6,83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25.4,71</t>
-  </si>
-  <si>
-    <t>-3.5,57.2</t>
-  </si>
-  <si>
-    <t>-14,72.5</t>
-  </si>
-  <si>
-    <t>-73.4,131.4</t>
-  </si>
-  <si>
-    <t>-47.5,136</t>
-  </si>
-  <si>
-    <t>-56.5,104.7</t>
-  </si>
-  <si>
-    <t>48.3,101.8</t>
-  </si>
-  <si>
-    <t>66.4,111.2</t>
-  </si>
-  <si>
-    <t>64.5,133.7</t>
-  </si>
-  <si>
-    <t>46.1,149.5</t>
-  </si>
-  <si>
-    <t>84.6,163.6</t>
-  </si>
-  <si>
-    <t>72.8,186.3</t>
-  </si>
-  <si>
-    <t>83.6,202.7</t>
-  </si>
-  <si>
-    <t>96.8,186.3</t>
-  </si>
-  <si>
-    <t>98.7,94.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103.1,111.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>112.8,89.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95.9,65.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>116.6,170.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>35</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>108.9,147.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135.5,166.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>117.6,186.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>117.6,204.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>71,261.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90.4,234.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70.1,227.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66.8,247.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51.1,244.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51.9,262.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>31.7,292.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37.8,277.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>59.4,294.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51.5,310.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28.3,310.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.1,294.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MonsterID[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterSpot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpotID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2,3,69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-58.9,3,121.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.3,3,118.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84.6,5,180.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98.7,12,94.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116.6,12,170.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66.8,7,247.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.7,7,292.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -337,7 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +252,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -404,7 +289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -428,6 +313,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,18 +634,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DA5BD1-DD57-4D8D-AAF2-C4145899C5D9}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="42.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.75" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="18" width="10.875" customWidth="1"/>
   </cols>
@@ -763,17 +654,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="7" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -790,450 +681,114 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5">
         <v>30</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3">
         <v>30</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5">
-        <v>30</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="8">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3">
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5">
-        <v>30</v>
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3">
-        <v>30</v>
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="E6" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3">
-        <v>30</v>
+      <c r="B7" s="8">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="E7" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3">
-        <v>30</v>
+      <c r="B8" s="8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3">
-        <v>15</v>
+      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3">
-        <v>15</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="4">
+      <c r="E9" s="4">
         <v>6</v>
       </c>
     </row>

--- a/excel2json-master/FieldMonsterSpwan_Data.xlsx
+++ b/excel2json-master/FieldMonsterSpwan_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\unity\TeamProject\05TeamProject14\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BDF3E3-188F-4229-A657-369C416B81D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D9FCB8-99EE-4EFC-8E8D-F152B20C3B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10845" yWindow="300" windowWidth="14715" windowHeight="15240" xr2:uid="{EEDD35C9-175D-4898-A367-A7B035882DA2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EEDD35C9-175D-4898-A367-A7B035882DA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MonsterSpot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SpotID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,6 +203,10 @@
   </si>
   <si>
     <t>31.7,7,292.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterSpot[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +637,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>1</v>
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5">
         <v>30</v>
@@ -699,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3">
         <v>30</v>
@@ -713,7 +713,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3">
         <v>15</v>
@@ -727,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>4</v>
@@ -741,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
@@ -755,7 +755,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
@@ -769,7 +769,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -783,7 +783,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>

--- a/excel2json-master/FieldMonsterSpwan_Data.xlsx
+++ b/excel2json-master/FieldMonsterSpwan_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\unity\TeamProject\05TeamProject14\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D9FCB8-99EE-4EFC-8E8D-F152B20C3B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04323774-334E-4269-841B-D33AD3B420FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EEDD35C9-175D-4898-A367-A7B035882DA2}"/>
+    <workbookView xWindow="0" yWindow="1560" windowWidth="14595" windowHeight="13260" xr2:uid="{EEDD35C9-175D-4898-A367-A7B035882DA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>#FieldMonsterSpwan[{}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,12 @@
   <si>
     <t>MonsterSpot[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36.2,0.4,-97.1</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
 </sst>
 </file>
@@ -289,7 +295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -319,6 +325,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DA5BD1-DD57-4D8D-AAF2-C4145899C5D9}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -792,6 +801,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="10" spans="1:18">
+      <c r="B10" s="10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel2json-master/FieldMonsterSpwan_Data.xlsx
+++ b/excel2json-master/FieldMonsterSpwan_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04323774-334E-4269-841B-D33AD3B420FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90EDF72-4249-49CA-B7E1-6E671F5E5B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1560" windowWidth="14595" windowHeight="13260" xr2:uid="{EEDD35C9-175D-4898-A367-A7B035882DA2}"/>
+    <workbookView xWindow="3240" yWindow="1695" windowWidth="14595" windowHeight="13260" xr2:uid="{EEDD35C9-175D-4898-A367-A7B035882DA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>#FieldMonsterSpwan[{}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,10 +210,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>36.2,0.4,-97.1</t>
-  </si>
-  <si>
-    <t>23</t>
+    <t>-19.4,2,67.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -646,7 +644,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -809,7 +807,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E10" s="4">
         <v>9</v>

--- a/excel2json-master/FieldMonsterSpwan_Data.xlsx
+++ b/excel2json-master/FieldMonsterSpwan_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90EDF72-4249-49CA-B7E1-6E671F5E5B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49F2BC1-8B03-46C7-B2F0-F6358683E1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="1695" windowWidth="14595" windowHeight="13260" xr2:uid="{EEDD35C9-175D-4898-A367-A7B035882DA2}"/>
+    <workbookView xWindow="13305" yWindow="1830" windowWidth="14595" windowHeight="13260" xr2:uid="{EEDD35C9-175D-4898-A367-A7B035882DA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>#FieldMonsterSpwan[{}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,6 +211,10 @@
   </si>
   <si>
     <t>-19.4,2,67.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,5,4,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +648,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -809,8 +813,8 @@
       <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="4">
-        <v>9</v>
+      <c r="E10" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json-master/FieldMonsterSpwan_Data.xlsx
+++ b/excel2json-master/FieldMonsterSpwan_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49F2BC1-8B03-46C7-B2F0-F6358683E1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD2F877-59B7-4658-A619-40C8FF481729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13305" yWindow="1830" windowWidth="14595" windowHeight="13260" xr2:uid="{EEDD35C9-175D-4898-A367-A7B035882DA2}"/>
+    <workbookView xWindow="660" yWindow="1725" windowWidth="14595" windowHeight="13260" xr2:uid="{EEDD35C9-175D-4898-A367-A7B035882DA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9,5,4,3</t>
+    <t>5,4,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +648,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/excel2json-master/FieldMonsterSpwan_Data.xlsx
+++ b/excel2json-master/FieldMonsterSpwan_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD2F877-59B7-4658-A619-40C8FF481729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B77392-ADEE-4626-8F21-879415665256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1725" windowWidth="14595" windowHeight="13260" xr2:uid="{EEDD35C9-175D-4898-A367-A7B035882DA2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EEDD35C9-175D-4898-A367-A7B035882DA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>#FieldMonsterSpwan[{}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,34 +138,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,8,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MonsterID[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,47 +154,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.2,3,69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-58.9,3,121.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50.3,3,118.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>84.6,5,180.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>98.7,12,94.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>116.6,12,170.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66.8,7,247.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31.7,7,292.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MonsterSpot[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-19.4,2,67.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,4,3</t>
+    <t>2,8,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-58.3,3,119.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.8,3,115.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,3,68.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76.2,3,149.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81.4,11,56.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106.4,17,62.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>117.2,6,133.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85.2,3,177.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67.3,7,245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83.4,5,295.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107.1,12,415.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120.4,5,478.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>154.2,3,587.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>137.1,4,637.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185.6,4,668</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>224.7,2,637.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,7 +305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +315,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -330,6 +372,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DA5BD1-DD57-4D8D-AAF2-C4145899C5D9}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I13" sqref="I13:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -666,16 +717,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -696,13 +747,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5">
         <v>30</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -710,13 +761,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3">
         <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -724,13 +775,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3">
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -738,13 +789,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -752,13 +803,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E6" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -766,13 +817,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E7" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -780,13 +831,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -794,13 +845,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -808,14 +859,142 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="B11" s="11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="B12" s="11">
+        <v>11</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>21</v>
       </c>
+      <c r="D12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="B13" s="11">
+        <v>12</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="B14" s="11">
+        <v>13</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="B15" s="11">
+        <v>14</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="B16" s="11">
+        <v>15</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="11">
+        <v>16</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel2json-master/FieldMonsterSpwan_Data.xlsx
+++ b/excel2json-master/FieldMonsterSpwan_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B77392-ADEE-4626-8F21-879415665256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24B21D0-508F-4477-B307-74D040980BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EEDD35C9-175D-4898-A367-A7B035882DA2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EEDD35C9-175D-4898-A367-A7B035882DA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,9 +400,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -440,7 +440,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -546,7 +546,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -688,7 +688,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -696,20 +696,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DA5BD1-DD57-4D8D-AAF2-C4145899C5D9}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:I14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.19921875" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="18" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="18" width="10.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -986,15 +986,14 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="3"/>
+      <c r="C24"/>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="3"/>
+      <c r="C25"/>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel2json-master/FieldMonsterSpwan_Data.xlsx
+++ b/excel2json-master/FieldMonsterSpwan_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24B21D0-508F-4477-B307-74D040980BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B32641E-BC50-4B4A-941B-69A96A99B625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EEDD35C9-175D-4898-A367-A7B035882DA2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EEDD35C9-175D-4898-A367-A7B035882DA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>#FieldMonsterSpwan[{}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,10 @@
   </si>
   <si>
     <t>224.7,2,637.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,8,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,9 +404,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -440,7 +444,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -546,7 +550,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -688,7 +692,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -698,18 +702,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DA5BD1-DD57-4D8D-AAF2-C4145899C5D9}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.19921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="18" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="18" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -753,7 +757,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:18">

--- a/excel2json-master/FieldMonsterSpwan_Data.xlsx
+++ b/excel2json-master/FieldMonsterSpwan_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B32641E-BC50-4B4A-941B-69A96A99B625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EC6603-C396-4A5F-B3A9-EE194B06CD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EEDD35C9-175D-4898-A367-A7B035882DA2}"/>
   </bookViews>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>#FieldMonsterSpwan[{}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,10 @@
   </si>
   <si>
     <t>2,8,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -703,7 +707,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -838,7 +842,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>17</v>
@@ -852,7 +856,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>17</v>
